--- a/medicine/Psychotrope/Opération_Midnight_Climax/Opération_Midnight_Climax.xlsx
+++ b/medicine/Psychotrope/Opération_Midnight_Climax/Opération_Midnight_Climax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Op%C3%A9ration_Midnight_Climax</t>
+          <t>Opération_Midnight_Climax</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'opération Midnight Climax (en français « Acmé » ou « Climax ») est une opération soutenue conjointement par la Central Intelligence Agency (CIA) et le Federal Bureau of Narcotics (FBN), à New York puis à San Francisco entre 1953 et 1965. Durant cette période, des appartements clandestins sont utilisés pour y droguer des personnes rencontrées dans des endroits publics. Dans le cadre du sous-projet 42 de MK-ULTRA, une de ces planques est aménagée en maison-close et des prostituées recrutées pour différentes missions de renseignement. Plusieurs techniques opérationnelles sont développées lors de ces expérimentations, ainsi que des recherches étendues sur les pratiques sexuelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Op%C3%A9ration_Midnight_Climax</t>
+          <t>Opération_Midnight_Climax</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le début des années 1940, de nombreuses recherches sur l'utilisation des armes chimiques et biologiques sont menées aux États-Unis. Pour chaque substance, des expérimentations humaines ont lieu dans des établissements sécurisés, le plus souvent sur des personnes travaillant pour l'armée ou le gouvernement. Dans d'autres cas, des prisonniers ou des toxicomanes sont sollicités pour tester les produits et les moyens de les administrer discrètement[1],[2]. Sidney Gottlieb, futur directeur du projet regroupant l'ensemble de ces programmes secrets, envisage l'essai de ces procédures dans des conditions opérationnelles.
-Dès 1952, il contacte un officier du Federal Bureau of Narcotics (FBN), George H. White. Cet ancien lieutenant-colonel de l'Office of Strategic Services (OSS) a déjà travaillé sur la mise au point d'un « sérum de vérité » pendant la Seconde guerre mondiale. Son expérience des opérations clandestines et sa connaissance du monde de la rue sont aussi jugées opportunes par Gottlieb[2],[3],[4]. White accepte la proposition de la CIA, et devient consultant pour le bureau des services techniques. En avril 1953, le projet MK-ULTRA et son financement exceptionnel (300 000 $ par an) sont approuvés, permettant aux expérimentations de débuter un mois plus tard[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le début des années 1940, de nombreuses recherches sur l'utilisation des armes chimiques et biologiques sont menées aux États-Unis. Pour chaque substance, des expérimentations humaines ont lieu dans des établissements sécurisés, le plus souvent sur des personnes travaillant pour l'armée ou le gouvernement. Dans d'autres cas, des prisonniers ou des toxicomanes sont sollicités pour tester les produits et les moyens de les administrer discrètement,. Sidney Gottlieb, futur directeur du projet regroupant l'ensemble de ces programmes secrets, envisage l'essai de ces procédures dans des conditions opérationnelles.
+Dès 1952, il contacte un officier du Federal Bureau of Narcotics (FBN), George H. White. Cet ancien lieutenant-colonel de l'Office of Strategic Services (OSS) a déjà travaillé sur la mise au point d'un « sérum de vérité » pendant la Seconde guerre mondiale. Son expérience des opérations clandestines et sa connaissance du monde de la rue sont aussi jugées opportunes par Gottlieb. White accepte la proposition de la CIA, et devient consultant pour le bureau des services techniques. En avril 1953, le projet MK-ULTRA et son financement exceptionnel (300 000 $ par an) sont approuvés, permettant aux expérimentations de débuter un mois plus tard,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Op%C3%A9ration_Midnight_Climax</t>
+          <t>Opération_Midnight_Climax</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,19 +559,136 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première installation à New York
-White utilise le premier financement de l'agence pour louer deux appartements adjacents dans un immeuble situé au 81 Bedford St. à Manhattan, dans le quartier de Greenwich Village. Utilisant le pseudonyme de « Morgan Hall », il fait installer du matériel de surveillance, notamment des microphones et un miroir sans tain, pour l'enregistrement des scènes à venir. Puis, sous la couverture d'un ancien marin ou d'un artiste, il attire des personnes abordées dans la rue jusqu'à la planque aménagée où elles sont droguées à leur insu. Dans la plupart des cas, du LSD est discrètement versé dans un verre d'alcool ou mélangé au tabac d'une cigarette à l'aide d'une seringue. Les réactions des victimes sont ensuite enregistrées par les appareils de surveillance, et dans certains cas rapportées par White dans un journal personnel[3],[5]. Cette première série de tests correspond au sous-projet 3 du projet MK-ULTRA, placé sous la direction du Dr Robert V. Lashbrook[7],[8]. 
-En novembre 1953, l'opération est provisoirement suspendue suite à la mort de Frank Olson. La mise en cause du LSD et la présence sur les lieux de Lashbrook sont deux éléments qui constituent un risque pour la sécurité des expérimentations[3],[8]. 
-Ce site clandestin, installé en pleine ville de New York, est aussi utilisé par le FBN pour des interrogatoires. White, qui travaille simultanément pour les deux agences, dispose d'un arrangement avec le service médical de la police. Au moins une personne s'est présentée à l'hôpital Lenox Hill après son passage dans l'appartement, et n'a pas déposé plainte[5],[8]. 
-Déménagement à San Francisco
-En 1955, George H. White est nommé à la tête du district de San Francisco par la direction du FBN. Il connaît bien la ville, dans laquelle il fut reporter au San Francisco Call Bulletin jusqu'en 1934[5],[8]. Cette mutation est aussi une opportunité pour la CIA, qui souhaite étendre le champ des activités menées à New York. White obtient un premier financement pour la location d'un duplex à Telegraph Hill, au 225 Chesnut St. En plus de quelques vieux meubles, des affiches de Toulouse-Lautrec et des photographies de danseuses de French cancan composent la décoration. En parallèle de l'expérimentation du LSD, cette nouvelle installation doit permettre l'étude des mœurs et des pratiques sexuelles[9],[10],[11]. 
-Ira Feldman, ancien agent du renseignement militaire qui a l'habitude d'évoluer dans les rues de San Francisco, est sollicité pour recruter des prostituées. La planque est utilisée comme maison-close, où les scènes sont enregistrées par des appareils de surveillance. Derrière un miroir sans tain, White, parfois accompagné de Feldman, observe et prend des notes. Au fur et à mesure des expérimentations, les préférences sexuelles des hommes sont étudiées, ainsi que les effets de la drogue consommée dans ces circonstances[3],[5],[11]. En tant que principal agent fédéral des stupéfiants à San Francisco, White bénéficie d'une certaine influence auprès des services de police de la ville et s'assure que les prostituées ne sont pas poursuivies lorsqu'elles sont arrêtées. Pour leur travail, elles sont rémunérées à hauteur d'environ 100 dollars par nuit[5],[11]. 
-Considérant l'opération comme un succès, Gottlieb transmet de nouvelles instructions pour l'essai du matériel et des techniques développées dans des endroits publics. Des agents sont missionnés pour traîner dans des bars, des restaurants et sur les plages, à la recherche d'une opportunité. White, quant à lui, établit une nouvelle planque en louant une maison isolée à Mill Valley, en périphérie de San Francisco, dans laquelle des expérimentations ont lieu lors de fêtes organisées à cette seule fin. En 1959, deux agents sont envoyés en Californie pour tester un appareil permettant de pulvériser discrètement du LSD en aérosol. D'après ces agents, auditionnés par un comité du Sénat des États-Unis en septembre 1977, plusieurs dizaines de dispositifs semblables à celui-ci ont été testés par White. Le suivi des personnes droguées à leur insu s'avère impossible dans ces conditions, et plusieurs victimes des expérimentations doivent être hospitalisées[5],[11],[12],[13].   
-Fin de l'opération
-Rapport de l'inspecteur général
-En 1963, l'opération est découverte par l'inspecteur général de la CIA, John Earman, qui recommande l'arrêt des expérimentations sur des civils non-consentants, précisant que « les concepts impliqués dans la manipulation du comportement humain sont considérés par de nombreuses personnes au sein et en dehors de l'agence comme étant de mauvais goût et contraires à l'éthique ». De plus, selon lui, les multiples hospitalisations représentent une sérieuse menace pour le secret de l'opération[4],[14],[15]. 
-Fermeture des sites clandestins
-En dépit des protestations formulées par Richard Helms, directeur des opérations clandestines et instigateur du projet MK-ULTRA, les sites de San Francisco sont fermés en 1965[5],[16]. La planque de New York, fermée après le départ de White, a été remplacée par une autre installation située au 105 West 13th St. Selon des documents de la CIA, cet appartement, aménagé de la même manière que le précédent, a servi de site clandestin sécurisé jusqu'en 1966[12],[17]. 
+          <t>Première installation à New York</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White utilise le premier financement de l'agence pour louer deux appartements adjacents dans un immeuble situé au 81 Bedford St. à Manhattan, dans le quartier de Greenwich Village. Utilisant le pseudonyme de « Morgan Hall », il fait installer du matériel de surveillance, notamment des microphones et un miroir sans tain, pour l'enregistrement des scènes à venir. Puis, sous la couverture d'un ancien marin ou d'un artiste, il attire des personnes abordées dans la rue jusqu'à la planque aménagée où elles sont droguées à leur insu. Dans la plupart des cas, du LSD est discrètement versé dans un verre d'alcool ou mélangé au tabac d'une cigarette à l'aide d'une seringue. Les réactions des victimes sont ensuite enregistrées par les appareils de surveillance, et dans certains cas rapportées par White dans un journal personnel,. Cette première série de tests correspond au sous-projet 3 du projet MK-ULTRA, placé sous la direction du Dr Robert V. Lashbrook,. 
+En novembre 1953, l'opération est provisoirement suspendue suite à la mort de Frank Olson. La mise en cause du LSD et la présence sur les lieux de Lashbrook sont deux éléments qui constituent un risque pour la sécurité des expérimentations,. 
+Ce site clandestin, installé en pleine ville de New York, est aussi utilisé par le FBN pour des interrogatoires. White, qui travaille simultanément pour les deux agences, dispose d'un arrangement avec le service médical de la police. Au moins une personne s'est présentée à l'hôpital Lenox Hill après son passage dans l'appartement, et n'a pas déposé plainte,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Opération_Midnight_Climax</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Op%C3%A9ration_Midnight_Climax</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Déroulement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Déménagement à San Francisco</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1955, George H. White est nommé à la tête du district de San Francisco par la direction du FBN. Il connaît bien la ville, dans laquelle il fut reporter au San Francisco Call Bulletin jusqu'en 1934,. Cette mutation est aussi une opportunité pour la CIA, qui souhaite étendre le champ des activités menées à New York. White obtient un premier financement pour la location d'un duplex à Telegraph Hill, au 225 Chesnut St. En plus de quelques vieux meubles, des affiches de Toulouse-Lautrec et des photographies de danseuses de French cancan composent la décoration. En parallèle de l'expérimentation du LSD, cette nouvelle installation doit permettre l'étude des mœurs et des pratiques sexuelles. 
+Ira Feldman, ancien agent du renseignement militaire qui a l'habitude d'évoluer dans les rues de San Francisco, est sollicité pour recruter des prostituées. La planque est utilisée comme maison-close, où les scènes sont enregistrées par des appareils de surveillance. Derrière un miroir sans tain, White, parfois accompagné de Feldman, observe et prend des notes. Au fur et à mesure des expérimentations, les préférences sexuelles des hommes sont étudiées, ainsi que les effets de la drogue consommée dans ces circonstances. En tant que principal agent fédéral des stupéfiants à San Francisco, White bénéficie d'une certaine influence auprès des services de police de la ville et s'assure que les prostituées ne sont pas poursuivies lorsqu'elles sont arrêtées. Pour leur travail, elles sont rémunérées à hauteur d'environ 100 dollars par nuit,. 
+Considérant l'opération comme un succès, Gottlieb transmet de nouvelles instructions pour l'essai du matériel et des techniques développées dans des endroits publics. Des agents sont missionnés pour traîner dans des bars, des restaurants et sur les plages, à la recherche d'une opportunité. White, quant à lui, établit une nouvelle planque en louant une maison isolée à Mill Valley, en périphérie de San Francisco, dans laquelle des expérimentations ont lieu lors de fêtes organisées à cette seule fin. En 1959, deux agents sont envoyés en Californie pour tester un appareil permettant de pulvériser discrètement du LSD en aérosol. D'après ces agents, auditionnés par un comité du Sénat des États-Unis en septembre 1977, plusieurs dizaines de dispositifs semblables à celui-ci ont été testés par White. Le suivi des personnes droguées à leur insu s'avère impossible dans ces conditions, et plusieurs victimes des expérimentations doivent être hospitalisées.   
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Opération_Midnight_Climax</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Op%C3%A9ration_Midnight_Climax</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Déroulement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fin de l'opération</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rapport de l'inspecteur général</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1963, l'opération est découverte par l'inspecteur général de la CIA, John Earman, qui recommande l'arrêt des expérimentations sur des civils non-consentants, précisant que « les concepts impliqués dans la manipulation du comportement humain sont considérés par de nombreuses personnes au sein et en dehors de l'agence comme étant de mauvais goût et contraires à l'éthique ». De plus, selon lui, les multiples hospitalisations représentent une sérieuse menace pour le secret de l'opération. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Opération_Midnight_Climax</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Op%C3%A9ration_Midnight_Climax</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Déroulement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fin de l'opération</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fermeture des sites clandestins</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dépit des protestations formulées par Richard Helms, directeur des opérations clandestines et instigateur du projet MK-ULTRA, les sites de San Francisco sont fermés en 1965,. La planque de New York, fermée après le départ de White, a été remplacée par une autre installation située au 105 West 13th St. Selon des documents de la CIA, cet appartement, aménagé de la même manière que le précédent, a servi de site clandestin sécurisé jusqu'en 1966,. 
 </t>
         </is>
       </c>
